--- a/Safe_Results/SA_Scenarios/SA_Scenarios_RC.xlsx
+++ b/Safe_Results/SA_Scenarios/SA_Scenarios_RC.xlsx
@@ -521,46 +521,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.049249999999999</v>
+        <v>8.50525</v>
       </c>
       <c r="C2" t="n">
-        <v>17.7822</v>
+        <v>17.20945</v>
       </c>
       <c r="D2" t="n">
-        <v>22.8443</v>
+        <v>22.17555</v>
       </c>
       <c r="E2" t="n">
-        <v>0.17995</v>
+        <v>0.12255</v>
       </c>
       <c r="F2" t="n">
-        <v>3035.89345</v>
+        <v>2935.1395</v>
       </c>
       <c r="G2" t="n">
-        <v>2779.61115</v>
+        <v>2689.01645</v>
       </c>
       <c r="H2" t="n">
-        <v>256.2823000000001</v>
+        <v>246.12305</v>
       </c>
       <c r="I2" t="n">
-        <v>256.2823000000001</v>
+        <v>246.12305</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5540.6548</v>
+        <v>5325.393399999999</v>
       </c>
       <c r="L2" t="n">
-        <v>2779.605</v>
+        <v>2689.035</v>
       </c>
       <c r="M2" t="n">
-        <v>2761.0498</v>
+        <v>2636.3584</v>
       </c>
       <c r="N2" t="n">
-        <v>404.4456</v>
+        <v>395.8867999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>2356.6042</v>
+        <v>2240.4718</v>
       </c>
     </row>
     <row r="3">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.285</v>
+        <v>9.336</v>
       </c>
       <c r="C3" t="n">
-        <v>24.387</v>
+        <v>24.568</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -582,34 +582,34 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3364.892</v>
+        <v>3244.394</v>
       </c>
       <c r="G3" t="n">
-        <v>3004.88</v>
+        <v>2902.063</v>
       </c>
       <c r="H3" t="n">
-        <v>360.012</v>
+        <v>342.332</v>
       </c>
       <c r="I3" t="n">
-        <v>217.546</v>
+        <v>211.476</v>
       </c>
       <c r="J3" t="n">
-        <v>142.466</v>
+        <v>130.856</v>
       </c>
       <c r="K3" t="n">
-        <v>4032.7924</v>
+        <v>3856.4258</v>
       </c>
       <c r="L3" t="n">
-        <v>3004.932</v>
+        <v>2902.004</v>
       </c>
       <c r="M3" t="n">
-        <v>1027.8604</v>
+        <v>954.4217999999998</v>
       </c>
       <c r="N3" t="n">
-        <v>377.3526</v>
+        <v>369.761</v>
       </c>
       <c r="O3" t="n">
-        <v>650.5078</v>
+        <v>584.6609999999999</v>
       </c>
     </row>
     <row r="4">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.525</v>
+        <v>11.824</v>
       </c>
       <c r="C4" t="n">
-        <v>32.115</v>
+        <v>30.715</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -631,31 +631,31 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>3740.714</v>
+        <v>3597.835</v>
       </c>
       <c r="G4" t="n">
-        <v>3562.738</v>
+        <v>3427.495</v>
       </c>
       <c r="H4" t="n">
-        <v>177.976</v>
+        <v>170.34</v>
       </c>
       <c r="I4" t="n">
-        <v>177.976</v>
+        <v>170.34</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>3710.949399999999</v>
+        <v>3570.5422</v>
       </c>
       <c r="L4" t="n">
-        <v>3562.738</v>
+        <v>3427.495</v>
       </c>
       <c r="M4" t="n">
-        <v>148.2114</v>
+        <v>143.0472</v>
       </c>
       <c r="N4" t="n">
-        <v>148.2114</v>
+        <v>143.0472</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -764,46 +764,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.28755</v>
+        <v>8.720699999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>19.03415</v>
+        <v>18.2932</v>
       </c>
       <c r="D2" t="n">
-        <v>20.8032</v>
+        <v>20.2373</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2333</v>
+        <v>0.15595</v>
       </c>
       <c r="F2" t="n">
-        <v>3102.309650000001</v>
+        <v>2999.0962</v>
       </c>
       <c r="G2" t="n">
-        <v>2840.6224</v>
+        <v>2741.5145</v>
       </c>
       <c r="H2" t="n">
-        <v>261.6873</v>
+        <v>257.5818</v>
       </c>
       <c r="I2" t="n">
-        <v>261.6873</v>
+        <v>257.5818</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3481.6576</v>
+        <v>3299.7192</v>
       </c>
       <c r="L2" t="n">
-        <v>2840.623</v>
+        <v>2741.534</v>
       </c>
       <c r="M2" t="n">
-        <v>641.0346000000001</v>
+        <v>558.1852</v>
       </c>
       <c r="N2" t="n">
-        <v>268.4154</v>
+        <v>249.3912</v>
       </c>
       <c r="O2" t="n">
-        <v>372.6194</v>
+        <v>308.794</v>
       </c>
     </row>
     <row r="3">
@@ -813,10 +813,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.178</v>
+        <v>10.121</v>
       </c>
       <c r="C3" t="n">
-        <v>26.59</v>
+        <v>26.355</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -825,31 +825,31 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3451.036</v>
+        <v>3325.352</v>
       </c>
       <c r="G3" t="n">
-        <v>3193.389</v>
+        <v>3061.865</v>
       </c>
       <c r="H3" t="n">
-        <v>257.647</v>
+        <v>263.487</v>
       </c>
       <c r="I3" t="n">
-        <v>177.914</v>
+        <v>180.566</v>
       </c>
       <c r="J3" t="n">
-        <v>79.733</v>
+        <v>82.922</v>
       </c>
       <c r="K3" t="n">
-        <v>3353.4478</v>
+        <v>3221.406</v>
       </c>
       <c r="L3" t="n">
-        <v>3193.416</v>
+        <v>3061.917</v>
       </c>
       <c r="M3" t="n">
-        <v>160.0318</v>
+        <v>159.489</v>
       </c>
       <c r="N3" t="n">
-        <v>160.0318</v>
+        <v>159.489</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.043</v>
+        <v>12.378</v>
       </c>
       <c r="C4" t="n">
-        <v>30.549</v>
+        <v>28.967</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -874,31 +874,31 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>3773.766</v>
+        <v>3618.86</v>
       </c>
       <c r="G4" t="n">
-        <v>3562.275</v>
+        <v>3424.175</v>
       </c>
       <c r="H4" t="n">
-        <v>211.491</v>
+        <v>194.685</v>
       </c>
       <c r="I4" t="n">
-        <v>83.535</v>
+        <v>194.685</v>
       </c>
       <c r="J4" t="n">
-        <v>127.956</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>3633.3816</v>
+        <v>3490.7982</v>
       </c>
       <c r="L4" t="n">
-        <v>3562.275</v>
+        <v>3424.175</v>
       </c>
       <c r="M4" t="n">
-        <v>71.1066</v>
+        <v>66.62320000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>71.1066</v>
+        <v>66.62320000000001</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1007,46 +1007,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.44125</v>
+        <v>8.89795</v>
       </c>
       <c r="C2" t="n">
-        <v>18.6632</v>
+        <v>17.95005</v>
       </c>
       <c r="D2" t="n">
-        <v>19.68675</v>
+        <v>18.71045</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2268</v>
+        <v>0.1394</v>
       </c>
       <c r="F2" t="n">
-        <v>3082.14175</v>
+        <v>2977.2507</v>
       </c>
       <c r="G2" t="n">
-        <v>2835.677000000001</v>
+        <v>2737.2133</v>
       </c>
       <c r="H2" t="n">
-        <v>246.46485</v>
+        <v>240.03745</v>
       </c>
       <c r="I2" t="n">
-        <v>246.46485</v>
+        <v>240.03745</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3660.9488</v>
+        <v>3574.756999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>2835.676</v>
+        <v>2737.232</v>
       </c>
       <c r="M2" t="n">
-        <v>825.2728</v>
+        <v>837.525</v>
       </c>
       <c r="N2" t="n">
-        <v>347.7128</v>
+        <v>342.9553999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>477.5599999999999</v>
+        <v>494.5696</v>
       </c>
     </row>
     <row r="3">
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.178</v>
+        <v>10.126</v>
       </c>
       <c r="C3" t="n">
-        <v>26.59</v>
+        <v>26.322</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1068,31 +1068,31 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3431.718</v>
+        <v>3304.498</v>
       </c>
       <c r="G3" t="n">
-        <v>3193.389</v>
+        <v>3061.199</v>
       </c>
       <c r="H3" t="n">
-        <v>238.33</v>
+        <v>243.299</v>
       </c>
       <c r="I3" t="n">
-        <v>158.597</v>
+        <v>159.898</v>
       </c>
       <c r="J3" t="n">
-        <v>79.733</v>
+        <v>83.401</v>
       </c>
       <c r="K3" t="n">
-        <v>3430.7164</v>
+        <v>3304.4606</v>
       </c>
       <c r="L3" t="n">
-        <v>3193.416</v>
+        <v>3061.222</v>
       </c>
       <c r="M3" t="n">
-        <v>237.3004</v>
+        <v>243.2386</v>
       </c>
       <c r="N3" t="n">
-        <v>237.3004</v>
+        <v>243.2386</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.043</v>
+        <v>12.378</v>
       </c>
       <c r="C4" t="n">
-        <v>30.549</v>
+        <v>28.967</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1117,31 +1117,31 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>3773.766</v>
+        <v>3618.86</v>
       </c>
       <c r="G4" t="n">
-        <v>3562.275</v>
+        <v>3424.175</v>
       </c>
       <c r="H4" t="n">
-        <v>211.491</v>
+        <v>194.685</v>
       </c>
       <c r="I4" t="n">
-        <v>83.535</v>
+        <v>194.685</v>
       </c>
       <c r="J4" t="n">
-        <v>127.956</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>3679.8292</v>
+        <v>3543.8584</v>
       </c>
       <c r="L4" t="n">
-        <v>3562.275</v>
+        <v>3424.175</v>
       </c>
       <c r="M4" t="n">
-        <v>117.5542</v>
+        <v>119.6834</v>
       </c>
       <c r="N4" t="n">
-        <v>117.5542</v>
+        <v>119.6834</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1250,43 +1250,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.757899999999999</v>
+        <v>9.119949999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>18.88815</v>
+        <v>18.2508</v>
       </c>
       <c r="D2" t="n">
-        <v>22.44845</v>
+        <v>22.10749999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2044</v>
+        <v>0.15595</v>
       </c>
       <c r="F2" t="n">
-        <v>3166.36275</v>
+        <v>3058.390549999999</v>
       </c>
       <c r="G2" t="n">
-        <v>2901.592700000001</v>
+        <v>2800.1548</v>
       </c>
       <c r="H2" t="n">
-        <v>264.77005</v>
+        <v>258.23585</v>
       </c>
       <c r="I2" t="n">
-        <v>264.77005</v>
+        <v>258.23585</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3015.0798</v>
+        <v>2909.3964</v>
       </c>
       <c r="L2" t="n">
-        <v>2901.595</v>
+        <v>2800.176</v>
       </c>
       <c r="M2" t="n">
-        <v>113.4848</v>
+        <v>109.2204</v>
       </c>
       <c r="N2" t="n">
-        <v>113.4848</v>
+        <v>109.2204</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1299,10 +1299,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.178</v>
+        <v>10.121</v>
       </c>
       <c r="C3" t="n">
-        <v>26.59</v>
+        <v>26.355</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1311,31 +1311,31 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3471.9</v>
+        <v>3345.42</v>
       </c>
       <c r="G3" t="n">
-        <v>3193.389</v>
+        <v>3061.865</v>
       </c>
       <c r="H3" t="n">
-        <v>278.511</v>
+        <v>283.555</v>
       </c>
       <c r="I3" t="n">
-        <v>198.778</v>
+        <v>200.633</v>
       </c>
       <c r="J3" t="n">
-        <v>79.733</v>
+        <v>82.922</v>
       </c>
       <c r="K3" t="n">
-        <v>3269.9956</v>
+        <v>3141.1456</v>
       </c>
       <c r="L3" t="n">
-        <v>3193.416</v>
+        <v>3061.917</v>
       </c>
       <c r="M3" t="n">
-        <v>76.5796</v>
+        <v>79.2286</v>
       </c>
       <c r="N3" t="n">
-        <v>76.5796</v>
+        <v>79.2286</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.043</v>
+        <v>12.378</v>
       </c>
       <c r="C4" t="n">
-        <v>30.549</v>
+        <v>28.967</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1360,31 +1360,31 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>3773.766</v>
+        <v>3618.86</v>
       </c>
       <c r="G4" t="n">
-        <v>3562.275</v>
+        <v>3424.175</v>
       </c>
       <c r="H4" t="n">
-        <v>211.491</v>
+        <v>194.685</v>
       </c>
       <c r="I4" t="n">
-        <v>83.535</v>
+        <v>194.685</v>
       </c>
       <c r="J4" t="n">
-        <v>127.956</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>3584.446</v>
+        <v>3447.0206</v>
       </c>
       <c r="L4" t="n">
-        <v>3562.275</v>
+        <v>3424.175</v>
       </c>
       <c r="M4" t="n">
-        <v>22.171</v>
+        <v>22.8456</v>
       </c>
       <c r="N4" t="n">
-        <v>22.171</v>
+        <v>22.8456</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1493,46 +1493,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.612449999999999</v>
+        <v>8.877549999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>17.3269</v>
+        <v>17.1503</v>
       </c>
       <c r="D2" t="n">
-        <v>22.2119</v>
+        <v>21.6828</v>
       </c>
       <c r="E2" t="n">
-        <v>0.12855</v>
+        <v>0.04995000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>3095.8448</v>
+        <v>2990.318849999999</v>
       </c>
       <c r="G2" t="n">
-        <v>2822.131950000001</v>
+        <v>2725.606150000001</v>
       </c>
       <c r="H2" t="n">
-        <v>273.7129</v>
+        <v>264.71265</v>
       </c>
       <c r="I2" t="n">
-        <v>273.7129</v>
+        <v>264.71265</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4214.8072</v>
+        <v>4044.4486</v>
       </c>
       <c r="L2" t="n">
-        <v>2822.127</v>
+        <v>2725.629</v>
       </c>
       <c r="M2" t="n">
-        <v>1392.6802</v>
+        <v>1318.8196</v>
       </c>
       <c r="N2" t="n">
-        <v>175.3342</v>
+        <v>169.79</v>
       </c>
       <c r="O2" t="n">
-        <v>1217.3462</v>
+        <v>1149.0296</v>
       </c>
     </row>
     <row r="3">
@@ -1542,10 +1542,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.416</v>
+        <v>10.275</v>
       </c>
       <c r="C3" t="n">
-        <v>24.286</v>
+        <v>23.599</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1554,34 +1554,34 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3371.656</v>
+        <v>3238.849</v>
       </c>
       <c r="G3" t="n">
-        <v>3131.98</v>
+        <v>2973.33</v>
       </c>
       <c r="H3" t="n">
-        <v>239.677</v>
+        <v>265.519</v>
       </c>
       <c r="I3" t="n">
-        <v>214.095</v>
+        <v>229.315</v>
       </c>
       <c r="J3" t="n">
-        <v>25.582</v>
+        <v>36.204</v>
       </c>
       <c r="K3" t="n">
-        <v>3672.6582</v>
+        <v>3566.970400000001</v>
       </c>
       <c r="L3" t="n">
-        <v>3132.029</v>
+        <v>2973.351</v>
       </c>
       <c r="M3" t="n">
-        <v>540.6292000000001</v>
+        <v>593.6193999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>133.935</v>
+        <v>141.2584</v>
       </c>
       <c r="O3" t="n">
-        <v>406.694</v>
+        <v>452.361</v>
       </c>
     </row>
     <row r="4">
@@ -1591,46 +1591,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.747</v>
+        <v>11.594</v>
       </c>
       <c r="C4" t="n">
-        <v>23.495</v>
+        <v>23.812</v>
       </c>
       <c r="D4" t="n">
-        <v>8.305</v>
+        <v>8.042999999999999</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>3599.422</v>
+        <v>3458.482</v>
       </c>
       <c r="G4" t="n">
-        <v>3317.981</v>
+        <v>3194.709</v>
       </c>
       <c r="H4" t="n">
-        <v>281.441</v>
+        <v>263.773</v>
       </c>
       <c r="I4" t="n">
-        <v>187.912</v>
+        <v>187.134</v>
       </c>
       <c r="J4" t="n">
-        <v>93.529</v>
+        <v>76.639</v>
       </c>
       <c r="K4" t="n">
-        <v>3698.553200000001</v>
+        <v>3526.0414</v>
       </c>
       <c r="L4" t="n">
-        <v>3317.981000000001</v>
+        <v>3194.709</v>
       </c>
       <c r="M4" t="n">
-        <v>380.5722</v>
+        <v>331.3324</v>
       </c>
       <c r="N4" t="n">
-        <v>84.18639999999999</v>
+        <v>80.1902</v>
       </c>
       <c r="O4" t="n">
-        <v>296.3858</v>
+        <v>251.1422</v>
       </c>
     </row>
   </sheetData>
